--- a/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="116">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,69 +55,72 @@
     <t>died</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>war</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>isolation</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
@@ -127,165 +133,168 @@
     <t>negative</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>beauty</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>better</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>boost</t>
+    <t>wish</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>dear</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>contest</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
     <t>security</t>
   </si>
   <si>
-    <t>join</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
@@ -301,52 +310,46 @@
     <t>helping</t>
   </si>
   <si>
-    <t>available</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -716,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,10 +727,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -806,16 +809,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -835,13 +838,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -853,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -885,13 +888,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -903,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -927,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -935,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -953,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -977,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -985,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1006,16 +1009,16 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.9473684210526315</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1035,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6952054794520548</v>
+        <v>0.76</v>
       </c>
       <c r="C8">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1053,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1077,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1085,13 +1088,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.68</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1103,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1127,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1135,13 +1138,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6206896551724138</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1153,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1177,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1185,38 +1188,38 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="L11">
         <v>18</v>
       </c>
-      <c r="D11">
+      <c r="M11">
         <v>18</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>12</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L11">
-        <v>24</v>
-      </c>
-      <c r="M11">
-        <v>24</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1235,13 +1238,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5897435897435898</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1253,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.8660714285714286</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L12">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="M12">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1277,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1285,7 +1288,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5483870967741935</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C13">
         <v>17</v>
@@ -1303,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.8414634146341463</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L13">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1327,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1335,13 +1338,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5384615384615384</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1353,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.8333333333333334</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1377,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1385,49 +1388,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L15">
+        <v>69</v>
+      </c>
+      <c r="M15">
+        <v>69</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>13</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>13</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15">
-        <v>0.8297872340425532</v>
-      </c>
-      <c r="L15">
-        <v>39</v>
-      </c>
-      <c r="M15">
-        <v>39</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1435,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4516129032258064</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1453,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.8275862068965517</v>
+        <v>0.8359375</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1477,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1485,13 +1488,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4473684210526316</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1503,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.8203125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L17">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1527,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1535,13 +1538,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1553,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K18">
         <v>0.8125</v>
@@ -1585,13 +1588,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.392156862745098</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1603,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.7916666666666666</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1627,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1635,13 +1638,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3783783783783784</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1653,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.7833333333333333</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L20">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="M20">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1677,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1685,13 +1688,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3611111111111111</v>
+        <v>0.3449612403100775</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1703,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>338</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1735,13 +1738,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.348993288590604</v>
+        <v>0.3422818791946309</v>
       </c>
       <c r="C22">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1753,19 +1756,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.7746478873239436</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L22">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1777,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1785,13 +1788,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3410852713178295</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C23">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1803,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.7647058823529411</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1827,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1835,13 +1838,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3389830508474576</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1853,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L24">
         <v>21</v>
@@ -1877,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1885,13 +1888,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.328042328042328</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C25">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1903,19 +1906,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.7452830188679245</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L25">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="M25">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1927,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1935,13 +1938,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2597402597402597</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1953,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.7391304347826086</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1977,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1985,7 +1988,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2372881355932203</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C27">
         <v>14</v>
@@ -2003,19 +2006,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.73125</v>
+        <v>0.75</v>
       </c>
       <c r="L27">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2027,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2035,13 +2038,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1888888888888889</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2053,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.7142857142857143</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2077,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2085,13 +2088,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1587301587301587</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C29">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2103,19 +2106,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K29">
-        <v>0.7021276595744681</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L29">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="M29">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2127,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2135,13 +2138,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08847184986595175</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2153,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K30">
-        <v>0.6984126984126984</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L30">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2177,73 +2180,121 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="C31">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>45</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>207</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K31">
+        <v>0.71875</v>
+      </c>
+      <c r="L31">
+        <v>115</v>
+      </c>
+      <c r="M31">
+        <v>115</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.1072386058981233</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>333</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32">
         <v>0.6944444444444444</v>
       </c>
-      <c r="L31">
+      <c r="L32">
         <v>25</v>
       </c>
-      <c r="M31">
+      <c r="M32">
         <v>25</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="L32">
-        <v>13</v>
-      </c>
-      <c r="M32">
-        <v>13</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>6</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K33">
-        <v>0.6666666666666666</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2255,21 +2306,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K34">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2281,21 +2332,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K35">
-        <v>0.625</v>
+        <v>0.6370757180156658</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2307,21 +2358,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K36">
-        <v>0.6161879895561357</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L36">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2333,21 +2384,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>147</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K37">
-        <v>0.6</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2359,47 +2410,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K38">
-        <v>0.5882352941176471</v>
+        <v>0.6</v>
       </c>
       <c r="L38">
+        <v>30</v>
+      </c>
+      <c r="M38">
+        <v>30</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>20</v>
-      </c>
-      <c r="M38">
-        <v>20</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>14</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K39">
-        <v>0.5852941176470589</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L39">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M39">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2411,21 +2462,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K40">
-        <v>0.5806451612903226</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2437,21 +2488,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K41">
-        <v>0.5555555555555556</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2463,21 +2514,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K42">
-        <v>0.5416666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2489,21 +2540,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K43">
-        <v>0.5357142857142857</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2515,21 +2566,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K44">
-        <v>0.535593220338983</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L44">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2541,21 +2592,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K45">
-        <v>0.5280898876404494</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L45">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2567,21 +2618,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2598,10 +2649,10 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K47">
-        <v>0.4883720930232558</v>
+        <v>0.525</v>
       </c>
       <c r="L47">
         <v>21</v>
@@ -2619,21 +2670,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K48">
-        <v>0.4848484848484849</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2645,21 +2696,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K49">
-        <v>0.4761904761904762</v>
+        <v>0.5</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2671,21 +2722,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K50">
-        <v>0.475</v>
+        <v>0.4769874476987448</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2697,21 +2748,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K51">
-        <v>0.4728033472803347</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L51">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2723,21 +2774,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>126</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K52">
-        <v>0.4571428571428571</v>
+        <v>0.475</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2749,21 +2800,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K53">
-        <v>0.4520547945205479</v>
+        <v>0.46875</v>
       </c>
       <c r="L53">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2775,21 +2826,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K54">
-        <v>0.4461538461538462</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L54">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M54">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2801,21 +2852,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K55">
-        <v>0.390625</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2827,21 +2878,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K56">
-        <v>0.3846153846153846</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L56">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M56">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2853,21 +2904,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K57">
-        <v>0.3617021276595745</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L57">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2879,21 +2930,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K58">
-        <v>0.3428571428571429</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M58">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2905,21 +2956,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K59">
-        <v>0.2786885245901639</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="L59">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M59">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2931,15 +2982,15 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K60">
-        <v>0.2711864406779661</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L60">
         <v>16</v>
@@ -2957,21 +3008,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K61">
-        <v>0.2711864406779661</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M61">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2983,21 +3034,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K62">
-        <v>0.1805555555555556</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3009,21 +3060,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K63">
-        <v>0.1153846153846154</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N63">
         <v>0.9399999999999999</v>
@@ -3035,21 +3086,21 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K64">
-        <v>0.1148325358851675</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="L64">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="M64">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3061,21 +3112,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>370</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K65">
-        <v>0.1102362204724409</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="L65">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3087,21 +3138,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>113</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K66">
-        <v>0.09134615384615384</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="L66">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3113,21 +3164,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>378</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K67">
-        <v>0.08837209302325581</v>
+        <v>0.08851674641148326</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M67">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3139,41 +3190,41 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>196</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K68">
-        <v>0.08411214953271028</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L68">
         <v>18</v>
       </c>
       <c r="M68">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N68">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K69">
-        <v>0.08176100628930817</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="L69">
         <v>13</v>
@@ -3191,21 +3242,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K70">
-        <v>0.07878787878787878</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="L70">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M70">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3217,21 +3268,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>152</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K71">
-        <v>0.06521739130434782</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="L71">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="M71">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3243,21 +3294,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>215</v>
+        <v>840</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K72">
-        <v>0.05704697986577181</v>
+        <v>0.04892966360856269</v>
       </c>
       <c r="L72">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="M72">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3269,21 +3320,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>843</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K73">
-        <v>0.04661487236403995</v>
+        <v>0.04106548279689234</v>
       </c>
       <c r="L73">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M73">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3295,21 +3346,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K74">
-        <v>0.04587155963302753</v>
+        <v>0.03575547866205306</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M74">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3321,21 +3372,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>312</v>
+        <v>836</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K75">
-        <v>0.03240740740740741</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="L75">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M75">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N75">
         <v>0.91</v>
@@ -3347,137 +3398,111 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K76">
-        <v>0.03114186851211072</v>
+        <v>0.02615600186828585</v>
       </c>
       <c r="L76">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M76">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>840</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K77">
-        <v>0.03037383177570093</v>
+        <v>0.01962809917355372</v>
       </c>
       <c r="L77">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M77">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="N77">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>2075</v>
+        <v>949</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K78">
-        <v>0.01756198347107438</v>
+        <v>0.01483392454047082</v>
       </c>
       <c r="L78">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M78">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>951</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K79">
-        <v>0.01483392454047082</v>
+        <v>0.005633802816901409</v>
       </c>
       <c r="L79">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="M79">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="N79">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="O79">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>3055</v>
-      </c>
-    </row>
-    <row r="80" spans="10:17">
-      <c r="J80" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K80">
-        <v>0.004383218534752661</v>
-      </c>
-      <c r="L80">
-        <v>14</v>
-      </c>
-      <c r="M80">
-        <v>21</v>
-      </c>
-      <c r="N80">
-        <v>0.67</v>
-      </c>
-      <c r="O80">
-        <v>0.33</v>
-      </c>
-      <c r="P80" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>3180</v>
+        <v>3177</v>
       </c>
     </row>
   </sheetData>
